--- a/Assets/快問快答題庫建立範例.xlsx
+++ b/Assets/快問快答題庫建立範例.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="177">
   <si>
     <t>題目</t>
   </si>
@@ -89,9 +89,6 @@
     <t>2014WCE世界盃烘豆大賽，來自台灣的賴昱權榮登冠軍寶座，請問他烘的主要是？</t>
   </si>
   <si>
-    <t>2015世界威士忌競賽（World Whiskies Awards），冠軍來自台灣麥芽威士忌原酒，是屬於哪個地方？</t>
-  </si>
-  <si>
     <t>2015年國際發明展，台灣共拿回26金16銀11銅，以及7面特別獎，獲獎率世界排名第一，請問是在哪裡舉辦的？</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
     <t>瑞士日內瓦</t>
   </si>
   <si>
-    <t>6小時</t>
-  </si>
-  <si>
     <t>打擊</t>
   </si>
   <si>
@@ -248,9 +242,6 @@
     <t>花蓮</t>
   </si>
   <si>
-    <t>9小時</t>
-  </si>
-  <si>
     <t>角力</t>
   </si>
   <si>
@@ -359,9 +350,6 @@
     <t>宜蘭</t>
   </si>
   <si>
-    <t>15小時</t>
-  </si>
-  <si>
     <t>有氧</t>
   </si>
   <si>
@@ -479,12 +467,6 @@
     <t>身體哪個部位的紋路和指紋一樣，每個人都不同？</t>
   </si>
   <si>
-    <t>世界哪一個洲種不出玉米？</t>
-  </si>
-  <si>
-    <t>本屆世大運在哪個國家舉辦？</t>
-  </si>
-  <si>
     <t>在網球比賽中，零是用哪個單字來表示？</t>
   </si>
   <si>
@@ -506,9 +488,6 @@
     <t>在比薩斜塔上做自由落體實驗的是哪一位科學家？</t>
   </si>
   <si>
-    <t>"既生瑜，何生亮"中的亮，指的是？</t>
-  </si>
-  <si>
     <t>下列哪裡未將葡萄牙語語列為官方語言？</t>
   </si>
   <si>
@@ -519,9 +498,6 @@
   </si>
   <si>
     <t>環境保護中所謂的「三生」不包括下列何者？</t>
-  </si>
-  <si>
-    <t>iphone5的充電接頭規格稱為？</t>
   </si>
   <si>
     <t>下列哪個是台灣「高雄」的名產？</t>
@@ -539,15 +515,62 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2014年來自台灣的陳立喆獲得&lt;全球甜點廚師大賽&gt;冠軍，請問他每天花幾個小時，練習甜點製</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>2015世界威士忌競賽，冠軍來自台灣麥芽威士忌原酒，是屬於哪個地方？</t>
+  </si>
+  <si>
+    <t>世界五大洲哪一個洲種不出玉米？</t>
+  </si>
+  <si>
+    <t>2015年第28屆世大運在哪個國家舉辦？</t>
+  </si>
+  <si>
+    <t>「既生瑜，何生亮」中的亮，指的是？</t>
+  </si>
+  <si>
+    <t>iPhone5的充電接頭規格稱為？</t>
+  </si>
+  <si>
+    <t>從1999年起連載15年，於2014年底以總共700話完結的知名漫畫是？</t>
+  </si>
+  <si>
+    <t>長期注視3C產品容易因接收過量藍光而傷眼，請問若配戴抗藍光眼鏡看見的畫面會偏向何種顏色？</t>
+  </si>
+  <si>
+    <t>台灣最北邊的島嶼為？</t>
+  </si>
+  <si>
+    <t>哆啦A夢</t>
+  </si>
+  <si>
+    <t>藍色</t>
+  </si>
+  <si>
+    <t>東引</t>
+  </si>
+  <si>
+    <t>獵人</t>
+  </si>
+  <si>
+    <t>綠色</t>
+  </si>
+  <si>
+    <t>北竿</t>
+  </si>
+  <si>
+    <t>火影忍者</t>
+  </si>
+  <si>
+    <t>黃色</t>
+  </si>
+  <si>
+    <t>西莒</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -577,8 +600,16 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -588,6 +619,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,21 +688,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -675,6 +706,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -956,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -971,7 +1014,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -980,10 +1023,10 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="K1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1025,31 +1068,31 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>31</v>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>68</v>
+      <c r="F3" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>105</v>
+      <c r="H3" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="4">
         <v>1</v>
       </c>
       <c r="K3" t="s">
@@ -1060,31 +1103,31 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>32</v>
+      <c r="D4" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>69</v>
+      <c r="F4" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>106</v>
+      <c r="H4" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="5">
         <v>3</v>
       </c>
       <c r="K4" t="s">
@@ -1095,31 +1138,31 @@
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>33</v>
+      <c r="D5" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>70</v>
+      <c r="F5" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>107</v>
+      <c r="H5" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="5">
         <v>2</v>
       </c>
       <c r="K5" t="s">
@@ -1130,31 +1173,31 @@
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
+      <c r="B6" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>34</v>
+      <c r="D6" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>71</v>
+      <c r="F6" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>108</v>
+      <c r="H6" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="5">
         <v>3</v>
       </c>
       <c r="K6" t="s">
@@ -1165,31 +1208,31 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
+      <c r="B7" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>35</v>
+      <c r="D7" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="5">
         <v>1</v>
       </c>
       <c r="K7" t="s">
@@ -1200,207 +1243,207 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>168</v>
+      <c r="B8" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="5">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="5">
+        <v>3</v>
+      </c>
+      <c r="K9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2016</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2017</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="5">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="7">
-        <v>3</v>
-      </c>
-      <c r="K8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="7">
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="5">
         <v>2</v>
-      </c>
-      <c r="K9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="7">
-        <v>3</v>
-      </c>
-      <c r="K10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="7">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2016</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="7">
-        <v>2017</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="7">
-        <v>2</v>
-      </c>
-      <c r="K12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="7">
-        <v>1</v>
       </c>
       <c r="K13" t="s">
         <v>10</v>
@@ -1410,32 +1453,32 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>26</v>
+      <c r="B14" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>41</v>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>45</v>
+      <c r="F14" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>114</v>
+      <c r="H14" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="7">
-        <v>2</v>
+      <c r="J14" s="5">
+        <v>1</v>
       </c>
       <c r="K14" t="s">
         <v>10</v>
@@ -1445,32 +1488,32 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>141</v>
+      <c r="B15" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>42</v>
+      <c r="D15" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>77</v>
+      <c r="F15" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>115</v>
+      <c r="H15" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="I15" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="7">
-        <v>1</v>
+      <c r="J15" s="5">
+        <v>2</v>
       </c>
       <c r="K15" t="s">
         <v>10</v>
@@ -1480,32 +1523,32 @@
       <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>142</v>
+      <c r="B16" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>43</v>
+      <c r="D16" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>78</v>
+      <c r="F16" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>116</v>
+      <c r="H16" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="I16" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="7">
-        <v>2</v>
+      <c r="J16" s="5">
+        <v>3</v>
       </c>
       <c r="K16" t="s">
         <v>10</v>
@@ -1515,31 +1558,31 @@
       <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>44</v>
+      <c r="D17" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>79</v>
+      <c r="F17" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="G17" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>117</v>
+      <c r="H17" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="I17" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="5">
         <v>3</v>
       </c>
       <c r="K17" t="s">
@@ -1550,102 +1593,102 @@
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="7">
-        <v>3</v>
-      </c>
-      <c r="K18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="I19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="7">
-        <v>1</v>
-      </c>
-      <c r="K19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="G20" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>120</v>
+      <c r="H20" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="I20" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="7">
-        <v>1</v>
+      <c r="J20" s="5">
+        <v>2</v>
       </c>
       <c r="K20" t="s">
         <v>10</v>
@@ -1655,31 +1698,31 @@
       <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>144</v>
+      <c r="B21" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>48</v>
+      <c r="D21" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>83</v>
+      <c r="F21" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>121</v>
+      <c r="H21" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="I21" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="5">
         <v>2</v>
       </c>
       <c r="K21" t="s">
@@ -1690,101 +1733,101 @@
       <c r="A22" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>145</v>
+      <c r="B22" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="5">
+        <v>3</v>
+      </c>
+      <c r="K22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="5">
+        <v>3</v>
+      </c>
+      <c r="K23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="7">
-        <v>2</v>
-      </c>
-      <c r="K22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" s="7">
-        <v>3</v>
-      </c>
-      <c r="K23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="G24" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="7" t="s">
-        <v>124</v>
+      <c r="H24" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="I24" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="5">
         <v>3</v>
       </c>
       <c r="K24" t="s">
@@ -1795,32 +1838,32 @@
       <c r="A25" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>147</v>
+      <c r="B25" s="7" t="s">
+        <v>144</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>52</v>
+      <c r="D25" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>87</v>
+      <c r="F25" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="G25" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>125</v>
+      <c r="H25" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="I25" t="s">
         <v>13</v>
       </c>
-      <c r="J25" s="7">
-        <v>3</v>
+      <c r="J25" s="5">
+        <v>1</v>
       </c>
       <c r="K25" t="s">
         <v>10</v>
@@ -1830,32 +1873,32 @@
       <c r="A26" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>148</v>
+      <c r="B26" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>53</v>
+      <c r="D26" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>88</v>
+      <c r="F26" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="G26" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="7" t="s">
-        <v>126</v>
+      <c r="H26" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="I26" t="s">
         <v>13</v>
       </c>
-      <c r="J26" s="7">
-        <v>1</v>
+      <c r="J26" s="5">
+        <v>2</v>
       </c>
       <c r="K26" t="s">
         <v>10</v>
@@ -1865,32 +1908,32 @@
       <c r="A27" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>149</v>
+      <c r="B27" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>54</v>
+      <c r="D27" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>89</v>
+      <c r="F27" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="G27" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="7" t="s">
-        <v>127</v>
+      <c r="H27" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="I27" t="s">
         <v>13</v>
       </c>
-      <c r="J27" s="7">
-        <v>2</v>
+      <c r="J27" s="5">
+        <v>3</v>
       </c>
       <c r="K27" t="s">
         <v>10</v>
@@ -1900,101 +1943,101 @@
       <c r="A28" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>150</v>
+      <c r="B28" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="7" t="s">
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I29" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="5">
+        <v>3</v>
+      </c>
+      <c r="K29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="I28" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" s="7">
-        <v>3</v>
-      </c>
-      <c r="K28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I29" t="s">
-        <v>13</v>
-      </c>
-      <c r="J29" s="7">
-        <v>1</v>
-      </c>
-      <c r="K29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="G30" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="7" t="s">
-        <v>130</v>
+      <c r="H30" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="I30" t="s">
         <v>13</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="5">
         <v>3</v>
       </c>
       <c r="K30" t="s">
@@ -2005,32 +2048,32 @@
       <c r="A31" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>153</v>
+      <c r="B31" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>8</v>
+      <c r="D31" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>93</v>
+      <c r="F31" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="G31" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="7" t="s">
-        <v>131</v>
+      <c r="H31" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="7">
-        <v>3</v>
+      <c r="J31" s="5">
+        <v>1</v>
       </c>
       <c r="K31" t="s">
         <v>10</v>
@@ -2040,32 +2083,32 @@
       <c r="A32" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>154</v>
+      <c r="B32" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>58</v>
+      <c r="D32" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>94</v>
+      <c r="F32" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="G32" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="7" t="s">
-        <v>132</v>
+      <c r="H32" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="I32" t="s">
         <v>13</v>
       </c>
-      <c r="J32" s="7">
-        <v>1</v>
+      <c r="J32" s="5">
+        <v>2</v>
       </c>
       <c r="K32" t="s">
         <v>10</v>
@@ -2075,32 +2118,32 @@
       <c r="A33" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>155</v>
+      <c r="B33" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G33" t="s">
         <v>11</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I33" t="s">
         <v>13</v>
       </c>
       <c r="J33" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K33" t="s">
         <v>10</v>
@@ -2110,32 +2153,32 @@
       <c r="A34" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>156</v>
+      <c r="B34" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G34" t="s">
         <v>11</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I34" t="s">
         <v>13</v>
       </c>
       <c r="J34" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K34" t="s">
         <v>10</v>
@@ -2145,32 +2188,32 @@
       <c r="A35" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>157</v>
+      <c r="B35" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G35" t="s">
         <v>11</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="I35" t="s">
         <v>13</v>
       </c>
       <c r="J35" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K35" t="s">
         <v>10</v>
@@ -2180,102 +2223,102 @@
       <c r="A36" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>158</v>
+      <c r="B36" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="5">
+        <v>2</v>
+      </c>
+      <c r="K36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="5" t="s">
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I37" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="5">
+        <v>3</v>
+      </c>
+      <c r="K37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36" t="s">
-        <v>13</v>
-      </c>
-      <c r="J36" s="5">
-        <v>3</v>
-      </c>
-      <c r="K36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I37" t="s">
-        <v>13</v>
-      </c>
-      <c r="J37" s="5">
-        <v>2</v>
-      </c>
-      <c r="K37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="G38" t="s">
         <v>11</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I38" t="s">
         <v>13</v>
       </c>
       <c r="J38" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K38" t="s">
         <v>10</v>
@@ -2285,61 +2328,61 @@
       <c r="A39" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>161</v>
+      <c r="B39" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I39" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="5">
+        <v>2</v>
+      </c>
+      <c r="K39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E39" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G39" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I39" t="s">
-        <v>13</v>
-      </c>
-      <c r="J39" s="5">
-        <v>1</v>
-      </c>
-      <c r="K39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="E40" t="s">
         <v>11</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G40" t="s">
         <v>11</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I40" t="s">
         <v>13</v>
@@ -2355,32 +2398,32 @@
       <c r="A41" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>163</v>
+      <c r="B41" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G41" t="s">
         <v>11</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I41" t="s">
         <v>13</v>
       </c>
       <c r="J41" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K41" t="s">
         <v>10</v>
@@ -2390,34 +2433,104 @@
       <c r="A42" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>164</v>
+      <c r="B42" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>67</v>
+      <c r="D42" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>104</v>
+      <c r="F42" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="G42" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="5" t="s">
-        <v>140</v>
+      <c r="H42" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="I42" t="s">
         <v>13</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="3">
+        <v>3</v>
+      </c>
+      <c r="K42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3</v>
+      </c>
+      <c r="K43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="3">
         <v>1</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K44" t="s">
         <v>10</v>
       </c>
     </row>
